--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_562.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_562.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82498-Reviews-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_562.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,618 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r583521652-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>82498</t>
+  </si>
+  <si>
+    <t>583521652</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>I just want to say a quick few words</t>
+  </si>
+  <si>
+    <t>All of the people saying its bad and terrible is there opinion, i live in the neighborhood and it looks great outside, Some parts are sketchy but its still a great place. This motel is doing there best, but not many people go to van nuys for a stay. Usualy most of the pwople have houses or apartments. Thats why their job isnt that great, they dont get that much people in their hotel. Van nuys is a great place and so is the motelI didnt stay here just wanted to say somethingMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Motel6VanNuys, Hotel Manager at Motel 6 Van Nuys, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>All of the people saying its bad and terrible is there opinion, i live in the neighborhood and it looks great outside, Some parts are sketchy but its still a great place. This motel is doing there best, but not many people go to van nuys for a stay. Usualy most of the pwople have houses or apartments. Thats why their job isnt that great, they dont get that much people in their hotel. Van nuys is a great place and so is the motelI didnt stay here just wanted to say somethingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r539592051-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>539592051</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Just Average</t>
+  </si>
+  <si>
+    <t>Before arriving to the motel I wasn’t expecting anything amazing. As we drove into the parking lot, the building doesn’t look the greatest. The neighborhood surrounding the motel was kinda “sketchy” but nothing horrible happened during our one night stay. The room was clean and had all the amenities I was expecting! Good motel to book for a night or 2. Not for a week long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Motel6VanNuys, Webmaster at Motel 6 Van Nuys, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Before arriving to the motel I wasn’t expecting anything amazing. As we drove into the parking lot, the building doesn’t look the greatest. The neighborhood surrounding the motel was kinda “sketchy” but nothing horrible happened during our one night stay. The room was clean and had all the amenities I was expecting! Good motel to book for a night or 2. Not for a week long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r525004573-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525004573</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Definitely not the Ritz!</t>
+  </si>
+  <si>
+    <t>Came in a bit late to LA and wanted a motel near the Getty Museum. While the location fit the bill as far as proximity to the museum, its location isn't exactly the best. It's on a busy main road dotted with strip malls and fast food places, and didn't seem that great a neighborhood. The man at the front desk was friendly enough, though when I first inquired about a room he quoted us $140 or so, but when I turned to leave, he then came up with one for $99. The lobby was a bit shabby but not noticeably dirty, but when we got our luggage and walked through the (dim) adjoining hallway to the elevator, we were disgusted with the deeply stained filthy carpeting all the way through and the dirty sticky elevator - both seemed as though they hadn't been cleaned in years! Our room was passably clean but had definitely seen better days and was bare minimum with no amenities except a fridge - no hairdryer, for example, which is standard everywhere else. We informed the man at the desk about some dried spilled soda in the elevator (which was sticking to our shoes) and he said he'd take care of it, but hours later it was still there (it was finally just barely cleaned by the following afternoon, though the elevator was still just plain dirty). All in all a depressing, shabby, dirty place...Came in a bit late to LA and wanted a motel near the Getty Museum. While the location fit the bill as far as proximity to the museum, its location isn't exactly the best. It's on a busy main road dotted with strip malls and fast food places, and didn't seem that great a neighborhood. The man at the front desk was friendly enough, though when I first inquired about a room he quoted us $140 or so, but when I turned to leave, he then came up with one for $99. The lobby was a bit shabby but not noticeably dirty, but when we got our luggage and walked through the (dim) adjoining hallway to the elevator, we were disgusted with the deeply stained filthy carpeting all the way through and the dirty sticky elevator - both seemed as though they hadn't been cleaned in years! Our room was passably clean but had definitely seen better days and was bare minimum with no amenities except a fridge - no hairdryer, for example, which is standard everywhere else. We informed the man at the desk about some dried spilled soda in the elevator (which was sticking to our shoes) and he said he'd take care of it, but hours later it was still there (it was finally just barely cleaned by the following afternoon, though the elevator was still just plain dirty). All in all a depressing, shabby, dirty place and will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Came in a bit late to LA and wanted a motel near the Getty Museum. While the location fit the bill as far as proximity to the museum, its location isn't exactly the best. It's on a busy main road dotted with strip malls and fast food places, and didn't seem that great a neighborhood. The man at the front desk was friendly enough, though when I first inquired about a room he quoted us $140 or so, but when I turned to leave, he then came up with one for $99. The lobby was a bit shabby but not noticeably dirty, but when we got our luggage and walked through the (dim) adjoining hallway to the elevator, we were disgusted with the deeply stained filthy carpeting all the way through and the dirty sticky elevator - both seemed as though they hadn't been cleaned in years! Our room was passably clean but had definitely seen better days and was bare minimum with no amenities except a fridge - no hairdryer, for example, which is standard everywhere else. We informed the man at the desk about some dried spilled soda in the elevator (which was sticking to our shoes) and he said he'd take care of it, but hours later it was still there (it was finally just barely cleaned by the following afternoon, though the elevator was still just plain dirty). All in all a depressing, shabby, dirty place...Came in a bit late to LA and wanted a motel near the Getty Museum. While the location fit the bill as far as proximity to the museum, its location isn't exactly the best. It's on a busy main road dotted with strip malls and fast food places, and didn't seem that great a neighborhood. The man at the front desk was friendly enough, though when I first inquired about a room he quoted us $140 or so, but when I turned to leave, he then came up with one for $99. The lobby was a bit shabby but not noticeably dirty, but when we got our luggage and walked through the (dim) adjoining hallway to the elevator, we were disgusted with the deeply stained filthy carpeting all the way through and the dirty sticky elevator - both seemed as though they hadn't been cleaned in years! Our room was passably clean but had definitely seen better days and was bare minimum with no amenities except a fridge - no hairdryer, for example, which is standard everywhere else. We informed the man at the desk about some dried spilled soda in the elevator (which was sticking to our shoes) and he said he'd take care of it, but hours later it was still there (it was finally just barely cleaned by the following afternoon, though the elevator was still just plain dirty). All in all a depressing, shabby, dirty place and will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r369717076-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>369717076</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Really nice reception</t>
+  </si>
+  <si>
+    <t>Our room is simple and not looking really clean. We doubt if the sheets have been washed? They look okay, but the smell.... We don't know. Good fridge and enough space for a low price. The man at the reception desk was really nice. Good location for seeing some sights! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Our room is simple and not looking really clean. We doubt if the sheets have been washed? They look okay, but the smell.... We don't know. Good fridge and enough space for a low price. The man at the reception desk was really nice. Good location for seeing some sights! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r355388885-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>355388885</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Rip off, Worst Customer Service.</t>
+  </si>
+  <si>
+    <t>We made a reservation on 02/28/16. We where stuck in traffic over 5 hours, I called them to please not cancel our reservation. That we where on our way, they where not able to pull our information  We provide Name, Phone Number, CC # and  nothing. But the next day there was a charge for $111 on our CC. We called customer service and the something happen taking over 45 min finally they where able to retrieve the info. They didn't want to refund us the $ because we didn't show up. How we where going to show up if there where no room available or we had a reservation. After taking to the owner he said there was nothing he could do.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Van Nuys, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>We made a reservation on 02/28/16. We where stuck in traffic over 5 hours, I called them to please not cancel our reservation. That we where on our way, they where not able to pull our information  We provide Name, Phone Number, CC # and  nothing. But the next day there was a charge for $111 on our CC. We called customer service and the something happen taking over 45 min finally they where able to retrieve the info. They didn't want to refund us the $ because we didn't show up. How we where going to show up if there where no room available or we had a reservation. After taking to the owner he said there was nothing he could do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r293930690-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>293930690</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>Do not stay at this Motel my wife was bitten by a bed bug and had a serious out break that i ended up taking her to the ER. The low price of this place is not worth the suffering of a loved one. Spread the word, please do not stay here I'm never going back to this or any of there motels I prefer to pay a higher price at a better hotel then being cheap and watching my loved one suffer. Like the saying goes "You get what you pay for" :(MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Van Nuys, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Do not stay at this Motel my wife was bitten by a bed bug and had a serious out break that i ended up taking her to the ER. The low price of this place is not worth the suffering of a loved one. Spread the word, please do not stay here I'm never going back to this or any of there motels I prefer to pay a higher price at a better hotel then being cheap and watching my loved one suffer. Like the saying goes "You get what you pay for" :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r241064740-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>241064740</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>My stay was bad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I rarely talk down to any place I've been but this motel 6 was actually the worst. They had a security guard at the front entrance of the place. I'm Slept terrible the bed had us folded like a sandwich. The bed was supposed to b a queen it remind me of an old hammock. The tile was dirty n room very small. The price was a lot it was Friday but it was not worth it people didn't have a placard n was parked n the disabled parking. It was quiet but I wouldn't stay again they give me a partial refund so I was happy. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r236467146-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>236467146</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>I stay just one night and I will not back to any of this places anymore, the check in was terrible the lady in the front desk was very rude, in my reservation I request 2 beds and when I ask her if she assign to me a rooms with two beds as I request she said no you reservations said 1 one bed and I said to her NO my reservation said 2 beds and she said to me in a not a good tone well you have to call us first if you want that happen, any ways she gave me what I need, the room was clean but smelly, the beds to hard, it was a lot of noise, no wi-fi.Please try to look and other place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Van Nuys, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>I stay just one night and I will not back to any of this places anymore, the check in was terrible the lady in the front desk was very rude, in my reservation I request 2 beds and when I ask her if she assign to me a rooms with two beds as I request she said no you reservations said 1 one bed and I said to her NO my reservation said 2 beds and she said to me in a not a good tone well you have to call us first if you want that happen, any ways she gave me what I need, the room was clean but smelly, the beds to hard, it was a lot of noise, no wi-fi.Please try to look and other place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r235548876-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>235548876</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Stayed one night for 6 hours</t>
+  </si>
+  <si>
+    <t>After long drive this hotel was perfect place to stay a little bit. Front desk guy was not very friendly and asked for passport and id and took copies of it. And I think it absolutely no reason to take copies of two documents. Anyways hotel is alright, usual motel 6.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r214565553-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>214565553</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Disgusting Pee Smelling Prostitute Place!</t>
+  </si>
+  <si>
+    <t>Myself Husband and Children drove from Vegas kid's were extremely tired we were in need of a room...I was looking for rooms on the internet I called one of the numbers to find a room so we booked it with Motel 6 when we got there they said they had nothing so I called the hotel finder back than the guy at the front desk says I'm sorry all we have is 1room left but it's smoking I said ok that's fine I just need to put my kids to sleep its late he said ok it's going to smell a little like smoke though so I said that's ok because we were leaving in the am! So finally we get the room keys after waiting an hour we get into the dirty nasty elevator OH LET ME REMIND YOU ABOUT THE NASTY PROSTITUTES WALKING THROUGH THE HALLS! We open the door to the room and smell of PEE is so overwhelming I called the front desk and this idiot tells me I'm sorry there's nothing I can do right now we have no other rooms we didn't even pull back the blankets to sleep gunshots kept going off We woke up early and left around 630 am, overall this place is worse then DISGUSTING and needs to be close down!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myself Husband and Children drove from Vegas kid's were extremely tired we were in need of a room...I was looking for rooms on the internet I called one of the numbers to find a room so we booked it with Motel 6 when we got there they said they had nothing so I called the hotel finder back than the guy at the front desk says I'm sorry all we have is 1room left but it's smoking I said ok that's fine I just need to put my kids to sleep its late he said ok it's going to smell a little like smoke though so I said that's ok because we were leaving in the am! So finally we get the room keys after waiting an hour we get into the dirty nasty elevator OH LET ME REMIND YOU ABOUT THE NASTY PROSTITUTES WALKING THROUGH THE HALLS! We open the door to the room and smell of PEE is so overwhelming I called the front desk and this idiot tells me I'm sorry there's nothing I can do right now we have no other rooms we didn't even pull back the blankets to sleep gunshots kept going off We woke up early and left around 630 am, overall this place is worse then DISGUSTING and needs to be close down!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r212725292-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>212725292</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>The worse 3 days of my life!!!</t>
+  </si>
+  <si>
+    <t>This was the worse experience of my life!! The hotel it self was disgusting with diarrhea stains on the rugs, the obvious prostitution and drug ring, and the disgusting furniture in the room!! The chair in the room, which I used to wedge the door shut was covered in various bodily fluids!! Never again will I stay at a motel 6!! I don't want to even rate this with a star but this requires a star to submit the review.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r184672968-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>184672968</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>You couldn't pay me to go back!</t>
+  </si>
+  <si>
+    <t>My husband, 6 year old daughter and I ended up staying here in desperation after a long afternoon of driving and needing to find somewhere to stay in LA before a cruise out of San Pedro the following day. What a mistake!Initial thoughts were that the place seemed quite unsafe. There were security guards casing the car park, but that didn't seem to deter some shady-looking types from hanging around. There were guys parked up in the car park; not sure what they were doing but they looked very suspicious.Our room, in a word, was dirty! There were hairs on the bed sheets and pillow cases. The room didn't smell clean at all. We were kept awake half the night by someone's dog barking outside our room, cars coming and going and a security guard constantly on his walkie talkie.I would never stay here again and would not recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Van Nuys, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>My husband, 6 year old daughter and I ended up staying here in desperation after a long afternoon of driving and needing to find somewhere to stay in LA before a cruise out of San Pedro the following day. What a mistake!Initial thoughts were that the place seemed quite unsafe. There were security guards casing the car park, but that didn't seem to deter some shady-looking types from hanging around. There were guys parked up in the car park; not sure what they were doing but they looked very suspicious.Our room, in a word, was dirty! There were hairs on the bed sheets and pillow cases. The room didn't smell clean at all. We were kept awake half the night by someone's dog barking outside our room, cars coming and going and a security guard constantly on his walkie talkie.I would never stay here again and would not recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r168805264-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>168805264</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>I would rather sleep in the car</t>
+  </si>
+  <si>
+    <t>Motel 6, Van Nuys, CA1. Creepy guy just outside office tried to sell us things he admittedly found in a dumpster. I actually reached for my pepper spray.2. Toilet wouldn't flush unless we removed the tank lid and literally lifted the mechanism.3. Refrigerator flooded us when we opened the door. We had to bail out water and clean it. When we plugged it in, it did work, but had no shelves. Reported to manager and was told nothing could be done about it now, but he "would leave a note for them in the morning."4. Bits of debris all over carpet, definitely not vacuumed. Bath tub had an unsightly layer of water deposit and soap scum...last scrubbed when????We have stayed at many Motel 6's, most of which were OK to excellent, but this was definitely the absolute worst. Upon leaving,we advised the day person about the toilet, etc. and he just said, "OK."  This was definitely the worst. We will never be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Jessie L, Owner at Motel 6 Van Nuys, responded to this reviewResponded July 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2013</t>
+  </si>
+  <si>
+    <t>Motel 6, Van Nuys, CA1. Creepy guy just outside office tried to sell us things he admittedly found in a dumpster. I actually reached for my pepper spray.2. Toilet wouldn't flush unless we removed the tank lid and literally lifted the mechanism.3. Refrigerator flooded us when we opened the door. We had to bail out water and clean it. When we plugged it in, it did work, but had no shelves. Reported to manager and was told nothing could be done about it now, but he "would leave a note for them in the morning."4. Bits of debris all over carpet, definitely not vacuumed. Bath tub had an unsightly layer of water deposit and soap scum...last scrubbed when????We have stayed at many Motel 6's, most of which were OK to excellent, but this was definitely the absolute worst. Upon leaving,we advised the day person about the toilet, etc. and he just said, "OK."  This was definitely the worst. We will never be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r165181391-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>165181391</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Room smelt like it had been fumigated</t>
+  </si>
+  <si>
+    <t>The room was very stuffy and smelt like it had recently been fumigated. Decor was cheap and nasty. The room might have been clean but I didn't want to touch any of the surfaces. The number of security staff on site suggested that this is not a safe neighbourhood. This was one of the more expensive places and definitely the worst (by some margin) in seven weeks away.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very stuffy and smelt like it had recently been fumigated. Decor was cheap and nasty. The room might have been clean but I didn't want to touch any of the surfaces. The number of security staff on site suggested that this is not a safe neighbourhood. This was one of the more expensive places and definitely the worst (by some margin) in seven weeks away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r161918664-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161918664</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Perfectly reasonable for the price</t>
+  </si>
+  <si>
+    <t>This neighborhood isn't exactly charming. A lot of dumpy looking hotels and motels all up and down the street. But for $60-something a night, this hotel is perfectly fine for a cheap, short stay if you have to be in this part of town for whatever reason.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r130827763-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130827763</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>The worst Motel 6 of all time</t>
+  </si>
+  <si>
+    <t>I stay at the Van Nuys, Sepulveda Blvd Motel 6 from time to time because if I have a very late arrival into Van Nuys, and an early departure on the Fly Away all for work. It is always my very last choice. The rooms are filthy, the hotel clientele is bottom of the barrel. So far I have had no security issues with parking inside the compound, so the place serves its purpose for a quick shower and a short sleep close to the Fly Away and the LA/Valley/Hollywood area hell-hole. The desk clerks however have always been very nice. This motel is last choice - if you stay at Motel 6's go for Canoga Park or even Sylmar if you can. Know before hand that it is a dump and that's what you are getting for $60/night plus or minus.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I stay at the Van Nuys, Sepulveda Blvd Motel 6 from time to time because if I have a very late arrival into Van Nuys, and an early departure on the Fly Away all for work. It is always my very last choice. The rooms are filthy, the hotel clientele is bottom of the barrel. So far I have had no security issues with parking inside the compound, so the place serves its purpose for a quick shower and a short sleep close to the Fly Away and the LA/Valley/Hollywood area hell-hole. The desk clerks however have always been very nice. This motel is last choice - if you stay at Motel 6's go for Canoga Park or even Sylmar if you can. Know before hand that it is a dump and that's what you are getting for $60/night plus or minus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r129930006-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129930006</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>We booked this place after a long and tiresome flight without checking the reviews first and regretted it the moment we stepped into the facility. The rooms where dirty, worn and reeked of sweat and cold ashes. The bed board was covered with greasy fingerprints, the chair's cushion had bloodstains on it and there where insect excrement on the window. I slept with my long pajamas on and a towel on the cushion as the bed was so dirty. It was very loud and noisy during the whole night (lots of loud voices and constant dripping sounds from the aircon), and we only caught 1-2 hours of sleep. Avoid that place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We booked this place after a long and tiresome flight without checking the reviews first and regretted it the moment we stepped into the facility. The rooms where dirty, worn and reeked of sweat and cold ashes. The bed board was covered with greasy fingerprints, the chair's cushion had bloodstains on it and there where insect excrement on the window. I slept with my long pajamas on and a towel on the cushion as the bed was so dirty. It was very loud and noisy during the whole night (lots of loud voices and constant dripping sounds from the aircon), and we only caught 1-2 hours of sleep. Avoid that place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r119937859-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>119937859</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Don't DO IT</t>
+  </si>
+  <si>
+    <t>The worst motel I've never slept. It's dirty and should be refurbished. The linen was very dirty, and in particular the bed.I found bugs in the room during the night, and moreover there is a strange stink of gasoline at the second floor.My suggestion: Avoid it</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r92346791-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>92346791</t>
+  </si>
+  <si>
+    <t>01/09/2011</t>
+  </si>
+  <si>
+    <t>Worst of the Worst!</t>
+  </si>
+  <si>
+    <t>Our family has used Motel 6 for years, always with excellent service, cleanliness, and dependability. But this place is an absolute dump! It was so filthy that I slept in my clothes and wouldn't use the covers at all, or the pillow. Didn't come with complete set of towels. My husband asked for more towels, and those had grease and dirt stains, lint. Same goes for pillow cases. Disgusting. Dirty, inside and out. The room stunk. Broken furniture. Rude staff. Absolutely disgusting! Motel 6 should pull their chain status. It was only one step above sleeping on the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>Investorshm, Guest Relations Manager at Motel 6 Van Nuys, responded to this reviewResponded September 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2011</t>
+  </si>
+  <si>
+    <t>Our family has used Motel 6 for years, always with excellent service, cleanliness, and dependability. But this place is an absolute dump! It was so filthy that I slept in my clothes and wouldn't use the covers at all, or the pillow. Didn't come with complete set of towels. My husband asked for more towels, and those had grease and dirt stains, lint. Same goes for pillow cases. Disgusting. Dirty, inside and out. The room stunk. Broken furniture. Rude staff. Absolutely disgusting! Motel 6 should pull their chain status. It was only one step above sleeping on the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r86306662-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>86306662</t>
+  </si>
+  <si>
+    <t>11/07/2010</t>
+  </si>
+  <si>
+    <t>Never again.</t>
+  </si>
+  <si>
+    <t>My fiancee is in the airforce and is stationed in louisiana so he came here to visit me for a week. On his salary this was the only place he could really afford, which was understandable. The hotels in encino where I live is very expensive so I didnt mind at all. Anyways, the manager seemed very cold and unwelcoming. We entered room 210 directly next to the elavator and it was awkward. The furniture was ok but the sheets had cigarret burns in them and the shower curtain was broken. There was a cocaroach on the ceiling we thought was dead but moved on the 3 day. The second day, the door broke and everynight there would be prostitutes walking down the halls with their clientel to the rooms with condoms in one hand and fast food in the other. It was disturbing to say the least. Just dont go there.MoreShow less</t>
+  </si>
+  <si>
+    <t>My fiancee is in the airforce and is stationed in louisiana so he came here to visit me for a week. On his salary this was the only place he could really afford, which was understandable. The hotels in encino where I live is very expensive so I didnt mind at all. Anyways, the manager seemed very cold and unwelcoming. We entered room 210 directly next to the elavator and it was awkward. The furniture was ok but the sheets had cigarret burns in them and the shower curtain was broken. There was a cocaroach on the ceiling we thought was dead but moved on the 3 day. The second day, the door broke and everynight there would be prostitutes walking down the halls with their clientel to the rooms with condoms in one hand and fast food in the other. It was disturbing to say the least. Just dont go there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r83734907-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>83734907</t>
+  </si>
+  <si>
+    <t>10/16/2010</t>
+  </si>
+  <si>
+    <t>Don't even THINK of staying here...</t>
+  </si>
+  <si>
+    <t>My adult son and I stayed here one night. The rooms were filthy, including hallways, carpet, bedding, and walls, but the price was too good to pass up. Well, we should have passed. On returning to our room late at night, we discovered our electronic door lock no longer worked. After about 40 min. of running back and forth from the lobby to our rooms to prove to the clerk that our door lock did not work, the clerk gave us another room for the night. We slept in our day-old clothes with all our luggage in the original room: no toiletries and had to forgo vital nighttime medications.  Harry, the morning clerk, refused to comp our room, stating that he comped the first room (well duh, we couldn't get in), but we would be charged for the alternate room, regardless of our not having our possessions with us.  I called Motel 6's guest relations while standing in front of him, filed a complaint, and made it clear I would be requesting a chargeback from my CC company. Harry stood his ground. As we left, another guest who was checking out told us that he had run into similar problems with the (family owned?) management: "They don't budge an inch."MoreShow less</t>
+  </si>
+  <si>
+    <t>My adult son and I stayed here one night. The rooms were filthy, including hallways, carpet, bedding, and walls, but the price was too good to pass up. Well, we should have passed. On returning to our room late at night, we discovered our electronic door lock no longer worked. After about 40 min. of running back and forth from the lobby to our rooms to prove to the clerk that our door lock did not work, the clerk gave us another room for the night. We slept in our day-old clothes with all our luggage in the original room: no toiletries and had to forgo vital nighttime medications.  Harry, the morning clerk, refused to comp our room, stating that he comped the first room (well duh, we couldn't get in), but we would be charged for the alternate room, regardless of our not having our possessions with us.  I called Motel 6's guest relations while standing in front of him, filed a complaint, and made it clear I would be requesting a chargeback from my CC company. Harry stood his ground. As we left, another guest who was checking out told us that he had run into similar problems with the (family owned?) management: "They don't budge an inch."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r48877215-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>48877215</t>
+  </si>
+  <si>
+    <t>11/09/2009</t>
+  </si>
+  <si>
+    <t>Avoid this terrible hotel</t>
+  </si>
+  <si>
+    <t>The area is bad, most of the staff including the so called mangers are rude and have no idea how to speak to customers.  I doubt they have ever worked in a decent hotel and look miserable most of the time.The first day I was there I left my room at 12 noon and came back at 3.30pm.  I called the manager to ask when they were going to clean my room and was told the maids had gone home early because there was not much to do.  He then rudely told me it was my fault the room was not cleaned because I had do not disturb sign on till noon.They claim the hotel is recently refurbished but it is better to say it has had a cheap facelift - still old elevator, tiny old bathroom and poor quality door.If you want a really cheap place there are cheaper options in the area but it is far better to go 1 mile down the street to a better area and stay at the Best Western Carriage Inn or the new Hampton Inn which is light years better.  These hotels are in a better area also.I suggest the hotel fires the existing management and gets in people that know how to run a hotel and understand basic customer care.MoreShow less</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Properties Reporter at Motel 6 Van Nuys, responded to this reviewResponded November 15, 2009</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2009</t>
+  </si>
+  <si>
+    <t>The area is bad, most of the staff including the so called mangers are rude and have no idea how to speak to customers.  I doubt they have ever worked in a decent hotel and look miserable most of the time.The first day I was there I left my room at 12 noon and came back at 3.30pm.  I called the manager to ask when they were going to clean my room and was told the maids had gone home early because there was not much to do.  He then rudely told me it was my fault the room was not cleaned because I had do not disturb sign on till noon.They claim the hotel is recently refurbished but it is better to say it has had a cheap facelift - still old elevator, tiny old bathroom and poor quality door.If you want a really cheap place there are cheaper options in the area but it is far better to go 1 mile down the street to a better area and stay at the Best Western Carriage Inn or the new Hampton Inn which is light years better.  These hotels are in a better area also.I suggest the hotel fires the existing management and gets in people that know how to run a hotel and understand basic customer care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r38170174-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>38170174</t>
+  </si>
+  <si>
+    <t>08/19/2009</t>
+  </si>
+  <si>
+    <t>different kind of place</t>
+  </si>
+  <si>
+    <t>First, no bugs of any kind which seems to be a growing travel issue.  Even though the building is worn, somewhat foreboding, and located in not the nicest of neighborhoods, it was probably the quietest place I've stayed in all my years of travel...even better than some well known upscale places where hallway/room drunkenness detracted from my stays.There was free (unlike many other places) internet that worked well and fast so I could stay in touch with my office and parking was not an issue.  It advertises a pool, but it is so small it is of limited use.  This is not the kind of place that will entertain you but it can be used as a place to sleep, shower and kick back for awhile.  The rate was pretty reasonable for what I received.Most of the people seemed ok, though a couple of the desk people seemed to have dark moods.  Overall, this place was perfectly adequate for what we needed but it is not a place I would take my kids to for a stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>Investorshm, IHM Properties Reporter at Motel 6 Van Nuys, responded to this reviewResponded September 19, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2009</t>
+  </si>
+  <si>
+    <t>First, no bugs of any kind which seems to be a growing travel issue.  Even though the building is worn, somewhat foreboding, and located in not the nicest of neighborhoods, it was probably the quietest place I've stayed in all my years of travel...even better than some well known upscale places where hallway/room drunkenness detracted from my stays.There was free (unlike many other places) internet that worked well and fast so I could stay in touch with my office and parking was not an issue.  It advertises a pool, but it is so small it is of limited use.  This is not the kind of place that will entertain you but it can be used as a place to sleep, shower and kick back for awhile.  The rate was pretty reasonable for what I received.Most of the people seemed ok, though a couple of the desk people seemed to have dark moods.  Overall, this place was perfectly adequate for what we needed but it is not a place I would take my kids to for a stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r32718287-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32718287</t>
+  </si>
+  <si>
+    <t>06/19/2009</t>
+  </si>
+  <si>
+    <t>Manager needs training in customer service</t>
+  </si>
+  <si>
+    <t>We booked and stayed one night as we were attending a wedding that Sunday in nearby Woodland Hills.  In the rush of packing and leaving, a cell phone was forgotten and left behind in the room.  Later that evening we discovered the oversight of the the phone and contacted the motel and we were told by a decent front desk clerk that he would attach a note and the phone could be picked up Monday morning.  Well my girlfriend traveled to Van Nuys to pick up and retrieve her telephone.  The front desk clerk who is Harry Ho was very rude and condesending toward my girlfriend.  He said he could not release her phone to her because she was not the person who booked the room. What the hell, the gentlemen that we spoke with the eve before said it would be no problem.  He would not accomodate her request to make a call from the cell phone to me ; I was as work and could not accompany her back nor was under the impression that my presence was needed to pick up HER CELL PHONE.  This guy was a real peace of work.  She left and had her phone immediately turned off.  We have decided to not provide any Comfort Inn with the COMFORT of OUR MONEY to line their pockets.  We will also not recommend that any of our friends, family or coworkers to stay at a...We booked and stayed one night as we were attending a wedding that Sunday in nearby Woodland Hills.  In the rush of packing and leaving, a cell phone was forgotten and left behind in the room.  Later that evening we discovered the oversight of the the phone and contacted the motel and we were told by a decent front desk clerk that he would attach a note and the phone could be picked up Monday morning.  Well my girlfriend traveled to Van Nuys to pick up and retrieve her telephone.  The front desk clerk who is Harry Ho was very rude and condesending toward my girlfriend.  He said he could not release her phone to her because she was not the person who booked the room. What the hell, the gentlemen that we spoke with the eve before said it would be no problem.  He would not accomodate her request to make a call from the cell phone to me ; I was as work and could not accompany her back nor was under the impression that my presence was needed to pick up HER CELL PHONE.  This guy was a real peace of work.  She left and had her phone immediately turned off.  We have decided to not provide any Comfort Inn with the COMFORT of OUR MONEY to line their pockets.  We will also not recommend that any of our friends, family or coworkers to stay at a Comfort Inn or any affilate of their company.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Investorshm, NIght Audit/ IHM Property Reporter at Motel 6 Van Nuys, responded to this reviewResponded June 27, 2009</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2009</t>
+  </si>
+  <si>
+    <t>We booked and stayed one night as we were attending a wedding that Sunday in nearby Woodland Hills.  In the rush of packing and leaving, a cell phone was forgotten and left behind in the room.  Later that evening we discovered the oversight of the the phone and contacted the motel and we were told by a decent front desk clerk that he would attach a note and the phone could be picked up Monday morning.  Well my girlfriend traveled to Van Nuys to pick up and retrieve her telephone.  The front desk clerk who is Harry Ho was very rude and condesending toward my girlfriend.  He said he could not release her phone to her because she was not the person who booked the room. What the hell, the gentlemen that we spoke with the eve before said it would be no problem.  He would not accomodate her request to make a call from the cell phone to me ; I was as work and could not accompany her back nor was under the impression that my presence was needed to pick up HER CELL PHONE.  This guy was a real peace of work.  She left and had her phone immediately turned off.  We have decided to not provide any Comfort Inn with the COMFORT of OUR MONEY to line their pockets.  We will also not recommend that any of our friends, family or coworkers to stay at a...We booked and stayed one night as we were attending a wedding that Sunday in nearby Woodland Hills.  In the rush of packing and leaving, a cell phone was forgotten and left behind in the room.  Later that evening we discovered the oversight of the the phone and contacted the motel and we were told by a decent front desk clerk that he would attach a note and the phone could be picked up Monday morning.  Well my girlfriend traveled to Van Nuys to pick up and retrieve her telephone.  The front desk clerk who is Harry Ho was very rude and condesending toward my girlfriend.  He said he could not release her phone to her because she was not the person who booked the room. What the hell, the gentlemen that we spoke with the eve before said it would be no problem.  He would not accomodate her request to make a call from the cell phone to me ; I was as work and could not accompany her back nor was under the impression that my presence was needed to pick up HER CELL PHONE.  This guy was a real peace of work.  She left and had her phone immediately turned off.  We have decided to not provide any Comfort Inn with the COMFORT of OUR MONEY to line their pockets.  We will also not recommend that any of our friends, family or coworkers to stay at a Comfort Inn or any affilate of their company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r3220262-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3220262</t>
+  </si>
+  <si>
+    <t>02/21/2005</t>
+  </si>
+  <si>
+    <t>Hotel from Hell</t>
+  </si>
+  <si>
+    <t>After traveling around 4 states in USA we ended up at LA. We arrived at night and pulled into this Hotel because we have stayed at Travel Lodges before. We initially booked in for 3 nights but only stayed 1. The room was dirty and was poorly maintained. There was a welcome pack that advised you not to leave valuable luggage in your room and to keep your widows closed at all times. On daybreak we realised why. The area was very run down and sleazy. We certainly did not feel safe and only ventured out to get into the car to drive out of the area. This was not what we have come to expect from a Travel Lodge. Please think twice before booking this Lodge as it may spoil your Holiday.MoreShow less</t>
+  </si>
+  <si>
+    <t>After traveling around 4 states in USA we ended up at LA. We arrived at night and pulled into this Hotel because we have stayed at Travel Lodges before. We initially booked in for 3 nights but only stayed 1. The room was dirty and was poorly maintained. There was a welcome pack that advised you not to leave valuable luggage in your room and to keep your widows closed at all times. On daybreak we realised why. The area was very run down and sleazy. We certainly did not feel safe and only ventured out to get into the car to drive out of the area. This was not what we have come to expect from a Travel Lodge. Please think twice before booking this Lodge as it may spoil your Holiday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r1686283-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1686283</t>
+  </si>
+  <si>
+    <t>02/29/2004</t>
+  </si>
+  <si>
+    <t>Do not go there!!!</t>
+  </si>
+  <si>
+    <t>DO NOT GO THERE...unless you like a place that looks like a crack hotel. The area is terrible!!!! The carpet is stained, the bathroom is very gross, the bedspread even had dried food on it. The hotel clerk is behind glass, there are notices of auto theft and frequent patrol of LAPD. We had children with us and didn't feel safe at all. We made reservations online for 2 nights and only stayed one and should have left before we stayed that one night. The whole place was filthy!!! Spend the extra few dollars and go somewhere else. They also tried to over charge us by $60. Beware of this hotel and others in the Van Nuys area!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT GO THERE...unless you like a place that looks like a crack hotel. The area is terrible!!!! The carpet is stained, the bathroom is very gross, the bedspread even had dried food on it. The hotel clerk is behind glass, there are notices of auto theft and frequent patrol of LAPD. We had children with us and didn't feel safe at all. We made reservations online for 2 nights and only stayed one and should have left before we stayed that one night. The whole place was filthy!!! Spend the extra few dollars and go somewhere else. They also tried to over charge us by $60. Beware of this hotel and others in the Van Nuys area!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r1075486-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1075486</t>
+  </si>
+  <si>
+    <t>06/09/2003</t>
+  </si>
+  <si>
+    <t>nightmare</t>
+  </si>
+  <si>
+    <t>The worst Travelodge that I have ever stayed in and I woud never go there again. I stayed there 3 times just to give them the benefit of the doubt. each time with the same results.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1260,1747 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_562.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Anthony27life</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>All of the people saying its bad and terrible is there opinion, i live in the neighborhood and it looks great outside, Some parts are sketchy but its still a great place. This motel is doing there best, but not many people go to van nuys for a stay. Usualy most of the pwople have houses or apartments. Thats why their job isnt that great, they dont get that much people in their hotel. Van nuys is a great place and so is the motelI didnt stay here just wanted to say somethingMore</t>
   </si>
   <si>
+    <t>Patrick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r539592051-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Before arriving to the motel I wasn’t expecting anything amazing. As we drove into the parking lot, the building doesn’t look the greatest. The neighborhood surrounding the motel was kinda “sketchy” but nothing horrible happened during our one night stay. The room was clean and had all the amenities I was expecting! Good motel to book for a night or 2. Not for a week long stay.More</t>
   </si>
   <si>
+    <t>Alicia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r525004573-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Came in a bit late to LA and wanted a motel near the Getty Museum. While the location fit the bill as far as proximity to the museum, its location isn't exactly the best. It's on a busy main road dotted with strip malls and fast food places, and didn't seem that great a neighborhood. The man at the front desk was friendly enough, though when I first inquired about a room he quoted us $140 or so, but when I turned to leave, he then came up with one for $99. The lobby was a bit shabby but not noticeably dirty, but when we got our luggage and walked through the (dim) adjoining hallway to the elevator, we were disgusted with the deeply stained filthy carpeting all the way through and the dirty sticky elevator - both seemed as though they hadn't been cleaned in years! Our room was passably clean but had definitely seen better days and was bare minimum with no amenities except a fridge - no hairdryer, for example, which is standard everywhere else. We informed the man at the desk about some dried spilled soda in the elevator (which was sticking to our shoes) and he said he'd take care of it, but hours later it was still there (it was finally just barely cleaned by the following afternoon, though the elevator was still just plain dirty). All in all a depressing, shabby, dirty place...Came in a bit late to LA and wanted a motel near the Getty Museum. While the location fit the bill as far as proximity to the museum, its location isn't exactly the best. It's on a busy main road dotted with strip malls and fast food places, and didn't seem that great a neighborhood. The man at the front desk was friendly enough, though when I first inquired about a room he quoted us $140 or so, but when I turned to leave, he then came up with one for $99. The lobby was a bit shabby but not noticeably dirty, but when we got our luggage and walked through the (dim) adjoining hallway to the elevator, we were disgusted with the deeply stained filthy carpeting all the way through and the dirty sticky elevator - both seemed as though they hadn't been cleaned in years! Our room was passably clean but had definitely seen better days and was bare minimum with no amenities except a fridge - no hairdryer, for example, which is standard everywhere else. We informed the man at the desk about some dried spilled soda in the elevator (which was sticking to our shoes) and he said he'd take care of it, but hours later it was still there (it was finally just barely cleaned by the following afternoon, though the elevator was still just plain dirty). All in all a depressing, shabby, dirty place and will never stay there again.More</t>
   </si>
   <si>
+    <t>lies1206</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r369717076-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Our room is simple and not looking really clean. We doubt if the sheets have been washed? They look okay, but the smell.... We don't know. Good fridge and enough space for a low price. The man at the reception desk was really nice. Good location for seeing some sights! More</t>
   </si>
   <si>
+    <t>Antonio S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r355388885-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>We made a reservation on 02/28/16. We where stuck in traffic over 5 hours, I called them to please not cancel our reservation. That we where on our way, they where not able to pull our information  We provide Name, Phone Number, CC # and  nothing. But the next day there was a charge for $111 on our CC. We called customer service and the something happen taking over 45 min finally they where able to retrieve the info. They didn't want to refund us the $ because we didn't show up. How we where going to show up if there where no room available or we had a reservation. After taking to the owner he said there was nothing he could do.More</t>
   </si>
   <si>
+    <t>Joe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r293930690-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>Do not stay at this Motel my wife was bitten by a bed bug and had a serious out break that i ended up taking her to the ER. The low price of this place is not worth the suffering of a loved one. Spread the word, please do not stay here I'm never going back to this or any of there motels I prefer to pay a higher price at a better hotel then being cheap and watching my loved one suffer. Like the saying goes "You get what you pay for" :(More</t>
   </si>
   <si>
+    <t>Dontenvyme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r241064740-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t xml:space="preserve">I rarely talk down to any place I've been but this motel 6 was actually the worst. They had a security guard at the front entrance of the place. I'm Slept terrible the bed had us folded like a sandwich. The bed was supposed to b a queen it remind me of an old hammock. The tile was dirty n room very small. The price was a lot it was Friday but it was not worth it people didn't have a placard n was parked n the disabled parking. It was quiet but I wouldn't stay again they give me a partial refund so I was happy. </t>
   </si>
   <si>
+    <t>anatayla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r236467146-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>I stay just one night and I will not back to any of this places anymore, the check in was terrible the lady in the front desk was very rude, in my reservation I request 2 beds and when I ask her if she assign to me a rooms with two beds as I request she said no you reservations said 1 one bed and I said to her NO my reservation said 2 beds and she said to me in a not a good tone well you have to call us first if you want that happen, any ways she gave me what I need, the room was clean but smelly, the beds to hard, it was a lot of noise, no wi-fi.Please try to look and other place to stay.More</t>
   </si>
   <si>
+    <t>Rami208</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r235548876-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Sashas2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r214565553-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>Myself Husband and Children drove from Vegas kid's were extremely tired we were in need of a room...I was looking for rooms on the internet I called one of the numbers to find a room so we booked it with Motel 6 when we got there they said they had nothing so I called the hotel finder back than the guy at the front desk says I'm sorry all we have is 1room left but it's smoking I said ok that's fine I just need to put my kids to sleep its late he said ok it's going to smell a little like smoke though so I said that's ok because we were leaving in the am! So finally we get the room keys after waiting an hour we get into the dirty nasty elevator OH LET ME REMIND YOU ABOUT THE NASTY PROSTITUTES WALKING THROUGH THE HALLS! We open the door to the room and smell of PEE is so overwhelming I called the front desk and this idiot tells me I'm sorry there's nothing I can do right now we have no other rooms we didn't even pull back the blankets to sleep gunshots kept going off We woke up early and left around 630 am, overall this place is worse then DISGUSTING and needs to be close down!!!!!More</t>
   </si>
   <si>
+    <t>Melissa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r212725292-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Jane P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r184672968-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>My husband, 6 year old daughter and I ended up staying here in desperation after a long afternoon of driving and needing to find somewhere to stay in LA before a cruise out of San Pedro the following day. What a mistake!Initial thoughts were that the place seemed quite unsafe. There were security guards casing the car park, but that didn't seem to deter some shady-looking types from hanging around. There were guys parked up in the car park; not sure what they were doing but they looked very suspicious.Our room, in a word, was dirty! There were hairs on the bed sheets and pillow cases. The room didn't smell clean at all. We were kept awake half the night by someone's dog barking outside our room, cars coming and going and a security guard constantly on his walkie talkie.I would never stay here again and would not recommend to anyone.More</t>
   </si>
   <si>
+    <t>KizzysMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r168805264-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>Motel 6, Van Nuys, CA1. Creepy guy just outside office tried to sell us things he admittedly found in a dumpster. I actually reached for my pepper spray.2. Toilet wouldn't flush unless we removed the tank lid and literally lifted the mechanism.3. Refrigerator flooded us when we opened the door. We had to bail out water and clean it. When we plugged it in, it did work, but had no shelves. Reported to manager and was told nothing could be done about it now, but he "would leave a note for them in the morning."4. Bits of debris all over carpet, definitely not vacuumed. Bath tub had an unsightly layer of water deposit and soap scum...last scrubbed when????We have stayed at many Motel 6's, most of which were OK to excellent, but this was definitely the absolute worst. Upon leaving,we advised the day person about the toilet, etc. and he just said, "OK."  This was definitely the worst. We will never be back.More</t>
   </si>
   <si>
+    <t>GibletsUK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r165181391-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>The room was very stuffy and smelt like it had recently been fumigated. Decor was cheap and nasty. The room might have been clean but I didn't want to touch any of the surfaces. The number of security staff on site suggested that this is not a safe neighbourhood. This was one of the more expensive places and definitely the worst (by some margin) in seven weeks away.More</t>
   </si>
   <si>
+    <t>Sarah5678_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r161918664-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,6 +549,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>turbine99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r130827763-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -525,6 +573,9 @@
     <t>I stay at the Van Nuys, Sepulveda Blvd Motel 6 from time to time because if I have a very late arrival into Van Nuys, and an early departure on the Fly Away all for work. It is always my very last choice. The rooms are filthy, the hotel clientele is bottom of the barrel. So far I have had no security issues with parking inside the compound, so the place serves its purpose for a quick shower and a short sleep close to the Fly Away and the LA/Valley/Hollywood area hell-hole. The desk clerks however have always been very nice. This motel is last choice - if you stay at Motel 6's go for Canoga Park or even Sylmar if you can. Know before hand that it is a dump and that's what you are getting for $60/night plus or minus.More</t>
   </si>
   <si>
+    <t>meigetsu77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r129930006-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>We booked this place after a long and tiresome flight without checking the reviews first and regretted it the moment we stepped into the facility. The rooms where dirty, worn and reeked of sweat and cold ashes. The bed board was covered with greasy fingerprints, the chair's cushion had bloodstains on it and there where insect excrement on the window. I slept with my long pajamas on and a towel on the cushion as the bed was so dirty. It was very loud and noisy during the whole night (lots of loud voices and constant dripping sounds from the aircon), and we only caught 1-2 hours of sleep. Avoid that place.More</t>
   </si>
   <si>
+    <t>Ste S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r119937859-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -570,6 +624,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>grandparents57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r92346791-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -597,6 +654,9 @@
     <t>Our family has used Motel 6 for years, always with excellent service, cleanliness, and dependability. But this place is an absolute dump! It was so filthy that I slept in my clothes and wouldn't use the covers at all, or the pillow. Didn't come with complete set of towels. My husband asked for more towels, and those had grease and dirt stains, lint. Same goes for pillow cases. Disgusting. Dirty, inside and out. The room stunk. Broken furniture. Rude staff. Absolutely disgusting! Motel 6 should pull their chain status. It was only one step above sleeping on the street.More</t>
   </si>
   <si>
+    <t>Missauyeung</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r86306662-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -615,6 +675,9 @@
     <t>My fiancee is in the airforce and is stationed in louisiana so he came here to visit me for a week. On his salary this was the only place he could really afford, which was understandable. The hotels in encino where I live is very expensive so I didnt mind at all. Anyways, the manager seemed very cold and unwelcoming. We entered room 210 directly next to the elavator and it was awkward. The furniture was ok but the sheets had cigarret burns in them and the shower curtain was broken. There was a cocaroach on the ceiling we thought was dead but moved on the 3 day. The second day, the door broke and everynight there would be prostitutes walking down the halls with their clientel to the rooms with condoms in one hand and fast food in the other. It was disturbing to say the least. Just dont go there.More</t>
   </si>
   <si>
+    <t>visualspatial</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r83734907-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -633,6 +696,9 @@
     <t>My adult son and I stayed here one night. The rooms were filthy, including hallways, carpet, bedding, and walls, but the price was too good to pass up. Well, we should have passed. On returning to our room late at night, we discovered our electronic door lock no longer worked. After about 40 min. of running back and forth from the lobby to our rooms to prove to the clerk that our door lock did not work, the clerk gave us another room for the night. We slept in our day-old clothes with all our luggage in the original room: no toiletries and had to forgo vital nighttime medications.  Harry, the morning clerk, refused to comp our room, stating that he comped the first room (well duh, we couldn't get in), but we would be charged for the alternate room, regardless of our not having our possessions with us.  I called Motel 6's guest relations while standing in front of him, filed a complaint, and made it clear I would be requesting a chargeback from my CC company. Harry stood his ground. As we left, another guest who was checking out told us that he had run into similar problems with the (family owned?) management: "They don't budge an inch."More</t>
   </si>
   <si>
+    <t>California2204</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r48877215-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -657,6 +723,9 @@
     <t>The area is bad, most of the staff including the so called mangers are rude and have no idea how to speak to customers.  I doubt they have ever worked in a decent hotel and look miserable most of the time.The first day I was there I left my room at 12 noon and came back at 3.30pm.  I called the manager to ask when they were going to clean my room and was told the maids had gone home early because there was not much to do.  He then rudely told me it was my fault the room was not cleaned because I had do not disturb sign on till noon.They claim the hotel is recently refurbished but it is better to say it has had a cheap facelift - still old elevator, tiny old bathroom and poor quality door.If you want a really cheap place there are cheaper options in the area but it is far better to go 1 mile down the street to a better area and stay at the Best Western Carriage Inn or the new Hampton Inn which is light years better.  These hotels are in a better area also.I suggest the hotel fires the existing management and gets in people that know how to run a hotel and understand basic customer care.More</t>
   </si>
   <si>
+    <t>OregonTraveler2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r38170174-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -684,6 +753,9 @@
     <t>First, no bugs of any kind which seems to be a growing travel issue.  Even though the building is worn, somewhat foreboding, and located in not the nicest of neighborhoods, it was probably the quietest place I've stayed in all my years of travel...even better than some well known upscale places where hallway/room drunkenness detracted from my stays.There was free (unlike many other places) internet that worked well and fast so I could stay in touch with my office and parking was not an issue.  It advertises a pool, but it is so small it is of limited use.  This is not the kind of place that will entertain you but it can be used as a place to sleep, shower and kick back for awhile.  The rate was pretty reasonable for what I received.Most of the people seemed ok, though a couple of the desk people seemed to have dark moods.  Overall, this place was perfectly adequate for what we needed but it is not a place I would take my kids to for a stay.More</t>
   </si>
   <si>
+    <t>ConsumerD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r32718287-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -709,6 +781,9 @@
   </si>
   <si>
     <t>We booked and stayed one night as we were attending a wedding that Sunday in nearby Woodland Hills.  In the rush of packing and leaving, a cell phone was forgotten and left behind in the room.  Later that evening we discovered the oversight of the the phone and contacted the motel and we were told by a decent front desk clerk that he would attach a note and the phone could be picked up Monday morning.  Well my girlfriend traveled to Van Nuys to pick up and retrieve her telephone.  The front desk clerk who is Harry Ho was very rude and condesending toward my girlfriend.  He said he could not release her phone to her because she was not the person who booked the room. What the hell, the gentlemen that we spoke with the eve before said it would be no problem.  He would not accomodate her request to make a call from the cell phone to me ; I was as work and could not accompany her back nor was under the impression that my presence was needed to pick up HER CELL PHONE.  This guy was a real peace of work.  She left and had her phone immediately turned off.  We have decided to not provide any Comfort Inn with the COMFORT of OUR MONEY to line their pockets.  We will also not recommend that any of our friends, family or coworkers to stay at a...We booked and stayed one night as we were attending a wedding that Sunday in nearby Woodland Hills.  In the rush of packing and leaving, a cell phone was forgotten and left behind in the room.  Later that evening we discovered the oversight of the the phone and contacted the motel and we were told by a decent front desk clerk that he would attach a note and the phone could be picked up Monday morning.  Well my girlfriend traveled to Van Nuys to pick up and retrieve her telephone.  The front desk clerk who is Harry Ho was very rude and condesending toward my girlfriend.  He said he could not release her phone to her because she was not the person who booked the room. What the hell, the gentlemen that we spoke with the eve before said it would be no problem.  He would not accomodate her request to make a call from the cell phone to me ; I was as work and could not accompany her back nor was under the impression that my presence was needed to pick up HER CELL PHONE.  This guy was a real peace of work.  She left and had her phone immediately turned off.  We have decided to not provide any Comfort Inn with the COMFORT of OUR MONEY to line their pockets.  We will also not recommend that any of our friends, family or coworkers to stay at a Comfort Inn or any affilate of their company.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82498-r3220262-Motel_6_Van_Nuys-Los_Angeles_California.html</t>
@@ -1264,43 +1339,47 @@
       <c r="A2" t="n">
         <v>12119</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1312,56 +1391,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>12119</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1373,56 +1456,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>12119</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1438,56 +1525,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>12119</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1499,56 +1590,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>12119</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1564,56 +1659,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>12119</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1625,47 +1724,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>12119</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -1694,50 +1797,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>12119</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1755,56 +1862,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>12119</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1822,41 +1933,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>12119</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1885,50 +2000,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>12119</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1942,50 +2061,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12119</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2007,56 +2130,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12119</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2078,47 +2205,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>12119</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -2145,56 +2276,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>12119</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2218,50 +2353,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>12119</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2285,50 +2424,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>12119</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2350,50 +2493,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>12119</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2417,50 +2564,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>12119</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2482,47 +2633,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>12119</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -2549,47 +2704,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>12119</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -2616,47 +2775,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>12119</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2683,56 +2846,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>12119</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2754,56 +2921,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>12119</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2825,47 +2996,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>12119</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -2892,41 +3067,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>12119</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -2945,41 +3124,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>12119</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -2998,7 +3181,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
